--- a/Greyform-linux-ros1/Python_Application/exporteddatass.xlsx
+++ b/Greyform-linux-ros1/Python_Application/exporteddatass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MokZhiZhuan\OneDrive - WINSYS TECHNOLOGY PTE LTD\Documents\GitHub\GreyForm_UI\Greyform-linux\Python_Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297B2859-B272-407C-BBD5-6FC498529D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255E8493-61F4-4041-93B9-8F47F5CD228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="495">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,6 +2873,9 @@
       <c r="F35">
         <v>0</v>
       </c>
+      <c r="G35" t="s">
+        <v>494</v>
+      </c>
       <c r="H35">
         <v>6</v>
       </c>
@@ -2899,6 +2902,9 @@
       <c r="F36">
         <v>0</v>
       </c>
+      <c r="G36" t="s">
+        <v>494</v>
+      </c>
       <c r="H36">
         <v>6</v>
       </c>
@@ -2925,6 +2931,9 @@
       <c r="F37">
         <v>0</v>
       </c>
+      <c r="G37" t="s">
+        <v>494</v>
+      </c>
       <c r="H37">
         <v>6</v>
       </c>
@@ -2951,6 +2960,9 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="G38" t="s">
+        <v>494</v>
+      </c>
       <c r="H38">
         <v>6</v>
       </c>
@@ -2977,6 +2989,9 @@
       <c r="F39">
         <v>0</v>
       </c>
+      <c r="G39" t="s">
+        <v>494</v>
+      </c>
       <c r="H39">
         <v>6</v>
       </c>
@@ -3003,6 +3018,9 @@
       <c r="F40">
         <v>0</v>
       </c>
+      <c r="G40" t="s">
+        <v>494</v>
+      </c>
       <c r="H40">
         <v>6</v>
       </c>
@@ -3029,6 +3047,9 @@
       <c r="F41">
         <v>0</v>
       </c>
+      <c r="G41" t="s">
+        <v>494</v>
+      </c>
       <c r="H41">
         <v>6</v>
       </c>
@@ -3113,6 +3134,9 @@
       <c r="F44">
         <v>0</v>
       </c>
+      <c r="G44" t="s">
+        <v>494</v>
+      </c>
       <c r="H44">
         <v>6</v>
       </c>
@@ -3197,6 +3221,9 @@
       <c r="F47">
         <v>0</v>
       </c>
+      <c r="G47" t="s">
+        <v>494</v>
+      </c>
       <c r="H47">
         <v>6</v>
       </c>
@@ -3223,6 +3250,9 @@
       <c r="F48">
         <v>0</v>
       </c>
+      <c r="G48" t="s">
+        <v>494</v>
+      </c>
       <c r="H48">
         <v>6</v>
       </c>
@@ -3336,6 +3366,9 @@
       <c r="F52">
         <v>0</v>
       </c>
+      <c r="G52" t="s">
+        <v>494</v>
+      </c>
       <c r="H52">
         <v>6</v>
       </c>
@@ -3362,6 +3395,9 @@
       <c r="F53">
         <v>0</v>
       </c>
+      <c r="G53" t="s">
+        <v>494</v>
+      </c>
       <c r="H53">
         <v>6</v>
       </c>
@@ -3416,6 +3452,9 @@
       </c>
       <c r="F55">
         <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>494</v>
       </c>
       <c r="H55">
         <v>6</v>
@@ -3663,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,6 +3756,9 @@
       <c r="F2">
         <v>215</v>
       </c>
+      <c r="G2" t="s">
+        <v>494</v>
+      </c>
       <c r="H2">
         <v>6</v>
       </c>
@@ -3743,6 +3785,9 @@
       <c r="F3">
         <v>215</v>
       </c>
+      <c r="G3" t="s">
+        <v>494</v>
+      </c>
       <c r="H3">
         <v>6</v>
       </c>
@@ -3769,6 +3814,9 @@
       <c r="F4">
         <v>800</v>
       </c>
+      <c r="G4" t="s">
+        <v>494</v>
+      </c>
       <c r="H4">
         <v>6</v>
       </c>
@@ -3795,6 +3843,9 @@
       <c r="F5">
         <v>800</v>
       </c>
+      <c r="G5" t="s">
+        <v>494</v>
+      </c>
       <c r="H5">
         <v>6</v>
       </c>
@@ -3820,6 +3871,9 @@
       </c>
       <c r="F6">
         <v>950</v>
+      </c>
+      <c r="G6" t="s">
+        <v>494</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -3847,6 +3901,9 @@
       <c r="F7">
         <v>556</v>
       </c>
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>
@@ -3873,6 +3930,9 @@
       <c r="F8">
         <v>-85</v>
       </c>
+      <c r="G8" t="s">
+        <v>494</v>
+      </c>
       <c r="H8">
         <v>6</v>
       </c>
@@ -3899,6 +3959,9 @@
       <c r="F9">
         <v>515</v>
       </c>
+      <c r="G9" t="s">
+        <v>494</v>
+      </c>
       <c r="H9">
         <v>6</v>
       </c>
@@ -3925,6 +3988,9 @@
       <c r="F10">
         <v>550</v>
       </c>
+      <c r="G10" t="s">
+        <v>494</v>
+      </c>
       <c r="H10">
         <v>6</v>
       </c>
@@ -3951,6 +4017,9 @@
       <c r="F11">
         <v>549</v>
       </c>
+      <c r="G11" t="s">
+        <v>494</v>
+      </c>
       <c r="H11">
         <v>6</v>
       </c>
@@ -3977,6 +4046,9 @@
       <c r="F12">
         <v>-59</v>
       </c>
+      <c r="G12" t="s">
+        <v>494</v>
+      </c>
       <c r="H12">
         <v>6</v>
       </c>
@@ -4003,6 +4075,9 @@
       <c r="F13">
         <v>2439</v>
       </c>
+      <c r="G13" t="s">
+        <v>494</v>
+      </c>
       <c r="H13">
         <v>6</v>
       </c>
@@ -4029,6 +4104,9 @@
       <c r="F14">
         <v>2469</v>
       </c>
+      <c r="G14" t="s">
+        <v>494</v>
+      </c>
       <c r="H14">
         <v>6</v>
       </c>
@@ -4055,6 +4133,9 @@
       <c r="F15">
         <v>1004</v>
       </c>
+      <c r="G15" t="s">
+        <v>494</v>
+      </c>
       <c r="H15">
         <v>6</v>
       </c>
@@ -4081,6 +4162,9 @@
       <c r="F16">
         <v>1004</v>
       </c>
+      <c r="G16" t="s">
+        <v>494</v>
+      </c>
       <c r="H16">
         <v>6</v>
       </c>
@@ -4107,6 +4191,9 @@
       <c r="F17">
         <v>275</v>
       </c>
+      <c r="G17" t="s">
+        <v>494</v>
+      </c>
       <c r="H17">
         <v>6</v>
       </c>
@@ -4133,6 +4220,9 @@
       <c r="F18">
         <v>-1775</v>
       </c>
+      <c r="G18" t="s">
+        <v>494</v>
+      </c>
       <c r="H18">
         <v>6</v>
       </c>
@@ -4159,6 +4249,9 @@
       <c r="F19">
         <v>-1747</v>
       </c>
+      <c r="G19" t="s">
+        <v>494</v>
+      </c>
       <c r="H19">
         <v>6</v>
       </c>
@@ -4185,6 +4278,9 @@
       <c r="F20">
         <v>577</v>
       </c>
+      <c r="G20" t="s">
+        <v>494</v>
+      </c>
       <c r="H20">
         <v>6</v>
       </c>
@@ -4211,6 +4307,9 @@
       <c r="F21">
         <v>-60</v>
       </c>
+      <c r="G21" t="s">
+        <v>494</v>
+      </c>
       <c r="H21">
         <v>6</v>
       </c>
@@ -4237,6 +4336,9 @@
       <c r="F22">
         <v>2440</v>
       </c>
+      <c r="G22" t="s">
+        <v>494</v>
+      </c>
       <c r="H22">
         <v>6</v>
       </c>
@@ -4263,6 +4365,9 @@
       <c r="F23">
         <v>-91</v>
       </c>
+      <c r="G23" t="s">
+        <v>494</v>
+      </c>
       <c r="H23">
         <v>6</v>
       </c>
@@ -4289,6 +4394,9 @@
       <c r="F24">
         <v>-100</v>
       </c>
+      <c r="G24" t="s">
+        <v>494</v>
+      </c>
       <c r="H24">
         <v>6</v>
       </c>
@@ -4315,6 +4423,9 @@
       <c r="F25">
         <v>-100</v>
       </c>
+      <c r="G25" t="s">
+        <v>494</v>
+      </c>
       <c r="H25">
         <v>6</v>
       </c>
@@ -4341,6 +4452,9 @@
       <c r="F26">
         <v>40</v>
       </c>
+      <c r="G26" t="s">
+        <v>494</v>
+      </c>
       <c r="H26">
         <v>6</v>
       </c>
@@ -4367,6 +4481,9 @@
       <c r="F27">
         <v>70</v>
       </c>
+      <c r="G27" t="s">
+        <v>494</v>
+      </c>
       <c r="H27">
         <v>6</v>
       </c>
@@ -4393,6 +4510,9 @@
       <c r="F28">
         <v>-59</v>
       </c>
+      <c r="G28" t="s">
+        <v>494</v>
+      </c>
       <c r="H28">
         <v>6</v>
       </c>
@@ -4419,6 +4539,9 @@
       <c r="F29">
         <v>2440</v>
       </c>
+      <c r="G29" t="s">
+        <v>494</v>
+      </c>
       <c r="H29">
         <v>6</v>
       </c>
@@ -4445,6 +4568,9 @@
       <c r="F30">
         <v>-59</v>
       </c>
+      <c r="G30" t="s">
+        <v>494</v>
+      </c>
       <c r="H30">
         <v>6</v>
       </c>
@@ -4471,6 +4597,9 @@
       <c r="F31">
         <v>-59</v>
       </c>
+      <c r="G31" t="s">
+        <v>494</v>
+      </c>
       <c r="H31">
         <v>6</v>
       </c>
@@ -4497,6 +4626,9 @@
       <c r="F32">
         <v>40</v>
       </c>
+      <c r="G32" t="s">
+        <v>494</v>
+      </c>
       <c r="H32">
         <v>6</v>
       </c>
@@ -4523,6 +4655,9 @@
       <c r="F33">
         <v>-30</v>
       </c>
+      <c r="G33" t="s">
+        <v>494</v>
+      </c>
       <c r="H33">
         <v>6</v>
       </c>
@@ -4549,6 +4684,9 @@
       <c r="F34">
         <v>2469</v>
       </c>
+      <c r="G34" t="s">
+        <v>494</v>
+      </c>
       <c r="H34">
         <v>6</v>
       </c>
@@ -4575,6 +4713,9 @@
       <c r="F35">
         <v>-29</v>
       </c>
+      <c r="G35" t="s">
+        <v>494</v>
+      </c>
       <c r="H35">
         <v>6</v>
       </c>
@@ -4601,6 +4742,9 @@
       <c r="F36">
         <v>-29</v>
       </c>
+      <c r="G36" t="s">
+        <v>494</v>
+      </c>
       <c r="H36">
         <v>6</v>
       </c>
@@ -4627,6 +4771,9 @@
       <c r="F37">
         <v>2469</v>
       </c>
+      <c r="G37" t="s">
+        <v>494</v>
+      </c>
       <c r="H37">
         <v>6</v>
       </c>
@@ -4653,6 +4800,9 @@
       <c r="F38">
         <v>-29</v>
       </c>
+      <c r="G38" t="s">
+        <v>494</v>
+      </c>
       <c r="H38">
         <v>6</v>
       </c>
@@ -4679,6 +4829,9 @@
       <c r="F39">
         <v>-29</v>
       </c>
+      <c r="G39" t="s">
+        <v>494</v>
+      </c>
       <c r="H39">
         <v>6</v>
       </c>
@@ -4705,6 +4858,9 @@
       <c r="F40">
         <v>70</v>
       </c>
+      <c r="G40" t="s">
+        <v>494</v>
+      </c>
       <c r="H40">
         <v>6</v>
       </c>
@@ -4731,6 +4887,9 @@
       <c r="F41">
         <v>-30</v>
       </c>
+      <c r="G41" t="s">
+        <v>494</v>
+      </c>
       <c r="H41">
         <v>6</v>
       </c>
@@ -4757,6 +4916,9 @@
       <c r="F42">
         <v>70</v>
       </c>
+      <c r="G42" t="s">
+        <v>494</v>
+      </c>
       <c r="H42">
         <v>6</v>
       </c>
@@ -4783,6 +4945,9 @@
       <c r="F43">
         <v>39</v>
       </c>
+      <c r="G43" t="s">
+        <v>494</v>
+      </c>
       <c r="H43">
         <v>6</v>
       </c>
@@ -4809,6 +4974,9 @@
       <c r="F44">
         <v>190</v>
       </c>
+      <c r="G44" t="s">
+        <v>494</v>
+      </c>
       <c r="H44">
         <v>6</v>
       </c>
@@ -4835,6 +5003,9 @@
       <c r="F45">
         <v>189</v>
       </c>
+      <c r="G45" t="s">
+        <v>494</v>
+      </c>
       <c r="H45">
         <v>6</v>
       </c>
@@ -4861,6 +5032,9 @@
       <c r="F46">
         <v>190</v>
       </c>
+      <c r="G46" t="s">
+        <v>494</v>
+      </c>
       <c r="H46">
         <v>6</v>
       </c>
@@ -4887,6 +5061,9 @@
       <c r="F47">
         <v>190</v>
       </c>
+      <c r="G47" t="s">
+        <v>494</v>
+      </c>
       <c r="H47">
         <v>6</v>
       </c>
@@ -4913,6 +5090,9 @@
       <c r="F48">
         <v>189</v>
       </c>
+      <c r="G48" t="s">
+        <v>494</v>
+      </c>
       <c r="H48">
         <v>6</v>
       </c>
@@ -4939,6 +5119,9 @@
       <c r="F49">
         <v>90</v>
       </c>
+      <c r="G49" t="s">
+        <v>494</v>
+      </c>
       <c r="H49">
         <v>6</v>
       </c>
@@ -4965,6 +5148,9 @@
       <c r="F50">
         <v>189</v>
       </c>
+      <c r="G50" t="s">
+        <v>494</v>
+      </c>
       <c r="H50">
         <v>6</v>
       </c>
@@ -4990,6 +5176,9 @@
       </c>
       <c r="F51">
         <v>89</v>
+      </c>
+      <c r="G51" t="s">
+        <v>494</v>
       </c>
       <c r="H51">
         <v>6</v>
@@ -5036,7 +5225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -9388,7 +9577,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9615,6 +9804,9 @@
       <c r="F8">
         <v>-45</v>
       </c>
+      <c r="G8" t="s">
+        <v>494</v>
+      </c>
       <c r="H8">
         <v>6</v>
       </c>
@@ -9785,6 +9977,9 @@
       </c>
       <c r="F14">
         <v>825</v>
+      </c>
+      <c r="G14" t="s">
+        <v>494</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -9832,7 +10027,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9995,6 +10190,9 @@
       <c r="F6">
         <v>-100</v>
       </c>
+      <c r="G6" t="s">
+        <v>494</v>
+      </c>
       <c r="H6">
         <v>6</v>
       </c>
@@ -10021,6 +10219,9 @@
       <c r="F7">
         <v>60</v>
       </c>
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>
@@ -10047,6 +10248,9 @@
       <c r="F8">
         <v>60</v>
       </c>
+      <c r="G8" t="s">
+        <v>494</v>
+      </c>
       <c r="H8">
         <v>6</v>
       </c>
@@ -10217,6 +10421,9 @@
       </c>
       <c r="F14">
         <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>494</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -10234,7 +10441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10286,6 +10495,9 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>494</v>
+      </c>
       <c r="H2">
         <v>6</v>
       </c>
@@ -10312,8 +10524,8 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>7</v>
+      <c r="G3" t="s">
+        <v>494</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -10341,8 +10553,8 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>7</v>
+      <c r="G4" t="s">
+        <v>494</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -10370,6 +10582,9 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>494</v>
+      </c>
       <c r="H5">
         <v>6</v>
       </c>
@@ -10396,6 +10611,9 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>494</v>
+      </c>
       <c r="H6">
         <v>6</v>
       </c>
@@ -10422,6 +10640,9 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>
@@ -10448,8 +10669,8 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>494</v>
       </c>
       <c r="H8">
         <v>6</v>

--- a/Greyform-linux-ros1/Python_Application/exporteddatass.xlsx
+++ b/Greyform-linux-ros1/Python_Application/exporteddatass.xlsx
@@ -2014,7 +2014,7 @@
         <v>3968</v>
       </c>
       <c r="M3">
-        <v>1440</v>
+        <v>1935</v>
       </c>
       <c r="O3">
         <v>114.4</v>
@@ -2058,7 +2058,7 @@
         <v>1500</v>
       </c>
       <c r="O4">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2096,7 +2096,7 @@
         <v>3968</v>
       </c>
       <c r="M5">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O5">
         <v>20</v>
@@ -2137,7 +2137,7 @@
         <v>3968</v>
       </c>
       <c r="M6">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O6">
         <v>20</v>
@@ -2178,7 +2178,7 @@
         <v>3968</v>
       </c>
       <c r="M7">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O7">
         <v>20</v>
@@ -2219,7 +2219,7 @@
         <v>3968</v>
       </c>
       <c r="M8">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -2342,7 +2342,7 @@
         <v>3968</v>
       </c>
       <c r="M11">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O11">
         <v>20.4</v>
@@ -2383,7 +2383,7 @@
         <v>3968</v>
       </c>
       <c r="M12">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O12">
         <v>20.4</v>
@@ -2424,7 +2424,7 @@
         <v>3968</v>
       </c>
       <c r="M13">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O13">
         <v>20</v>
@@ -2465,7 +2465,7 @@
         <v>3968</v>
       </c>
       <c r="M14">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -2506,7 +2506,7 @@
         <v>3968</v>
       </c>
       <c r="M15">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O15">
         <v>20</v>
@@ -2547,7 +2547,7 @@
         <v>3968</v>
       </c>
       <c r="M16">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O16">
         <v>20.4</v>
@@ -2588,7 +2588,7 @@
         <v>3968</v>
       </c>
       <c r="M17">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O17">
         <v>20</v>
@@ -2629,7 +2629,7 @@
         <v>3968</v>
       </c>
       <c r="M18">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O18">
         <v>20</v>
@@ -2752,7 +2752,7 @@
         <v>3968</v>
       </c>
       <c r="M21">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O21">
         <v>25</v>
@@ -2793,7 +2793,7 @@
         <v>3968</v>
       </c>
       <c r="M22">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O22">
         <v>25</v>
@@ -2834,7 +2834,7 @@
         <v>3968</v>
       </c>
       <c r="M23">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O23">
         <v>25</v>
@@ -2875,7 +2875,7 @@
         <v>3968</v>
       </c>
       <c r="M24">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O24">
         <v>25</v>
@@ -2916,7 +2916,7 @@
         <v>3968</v>
       </c>
       <c r="M25">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O25">
         <v>25</v>
@@ -2957,7 +2957,7 @@
         <v>3968</v>
       </c>
       <c r="M26">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O26">
         <v>25</v>
@@ -2998,7 +2998,7 @@
         <v>3968</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O27">
         <v>20</v>
@@ -3080,7 +3080,7 @@
         <v>3968</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O29">
         <v>20</v>
@@ -3121,7 +3121,7 @@
         <v>3968</v>
       </c>
       <c r="M30">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O30">
         <v>20</v>
@@ -3162,7 +3162,7 @@
         <v>3968</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O31">
         <v>20</v>
@@ -3203,7 +3203,7 @@
         <v>3968</v>
       </c>
       <c r="M32">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O32">
         <v>25</v>
@@ -3244,7 +3244,7 @@
         <v>3968</v>
       </c>
       <c r="M33">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O33">
         <v>20</v>
@@ -3285,7 +3285,7 @@
         <v>3968</v>
       </c>
       <c r="M34">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O34">
         <v>20</v>
@@ -3370,7 +3370,7 @@
         <v>1500</v>
       </c>
       <c r="O36">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3411,7 +3411,7 @@
         <v>1500</v>
       </c>
       <c r="O37">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3452,7 +3452,7 @@
         <v>1500</v>
       </c>
       <c r="O38">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3493,7 +3493,7 @@
         <v>1500</v>
       </c>
       <c r="O39">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3613,7 +3613,7 @@
         <v>3968</v>
       </c>
       <c r="M42">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O42">
         <v>25</v>
@@ -3654,7 +3654,7 @@
         <v>3968</v>
       </c>
       <c r="M43">
-        <v>1935</v>
+        <v>1440</v>
       </c>
       <c r="O43">
         <v>25</v>
@@ -3736,7 +3736,7 @@
         <v>3968</v>
       </c>
       <c r="M45">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O45">
         <v>25</v>
@@ -3777,7 +3777,7 @@
         <v>3968</v>
       </c>
       <c r="M46">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O46">
         <v>20</v>
@@ -3900,7 +3900,7 @@
         <v>3968</v>
       </c>
       <c r="M49">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O49">
         <v>25</v>
@@ -3941,7 +3941,7 @@
         <v>3968</v>
       </c>
       <c r="M50">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O50">
         <v>20</v>
@@ -3982,7 +3982,7 @@
         <v>3968</v>
       </c>
       <c r="M51">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O51">
         <v>20</v>
@@ -4105,7 +4105,7 @@
         <v>3968</v>
       </c>
       <c r="M54">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O54">
         <v>20</v>
@@ -4187,7 +4187,7 @@
         <v>3968</v>
       </c>
       <c r="M56">
-        <v>900</v>
+        <v>2835</v>
       </c>
       <c r="O56">
         <v>20</v>
@@ -4285,7 +4285,7 @@
         <v>3968</v>
       </c>
       <c r="M2">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6470,7 @@
         <v>3968</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -6641,7 +6641,7 @@
         <v>3968</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6679,7 +6679,7 @@
         <v>3968</v>
       </c>
       <c r="M5">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6755,7 +6755,7 @@
         <v>3968</v>
       </c>
       <c r="M7">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6907,7 +6907,7 @@
         <v>3968</v>
       </c>
       <c r="M11">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -6945,7 +6945,7 @@
         <v>3968</v>
       </c>
       <c r="M12">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6983,7 +6983,7 @@
         <v>3968</v>
       </c>
       <c r="M13">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -7325,7 +7325,7 @@
         <v>3968</v>
       </c>
       <c r="M22">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7363,7 +7363,7 @@
         <v>3968</v>
       </c>
       <c r="M23">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7401,7 +7401,7 @@
         <v>3968</v>
       </c>
       <c r="M24">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -7439,7 +7439,7 @@
         <v>3968</v>
       </c>
       <c r="M25">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -7477,7 +7477,7 @@
         <v>3968</v>
       </c>
       <c r="M26">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7515,7 +7515,7 @@
         <v>3968</v>
       </c>
       <c r="M27">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -7553,7 +7553,7 @@
         <v>3968</v>
       </c>
       <c r="M28">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -7591,7 +7591,7 @@
         <v>3968</v>
       </c>
       <c r="M29">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7629,7 +7629,7 @@
         <v>3968</v>
       </c>
       <c r="M30">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7667,7 +7667,7 @@
         <v>3968</v>
       </c>
       <c r="M31">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7705,7 +7705,7 @@
         <v>3968</v>
       </c>
       <c r="M32">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -7743,7 +7743,7 @@
         <v>3968</v>
       </c>
       <c r="M33">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -7781,7 +7781,7 @@
         <v>3968</v>
       </c>
       <c r="M34">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7819,7 +7819,7 @@
         <v>3968</v>
       </c>
       <c r="M35">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -7857,7 +7857,7 @@
         <v>3968</v>
       </c>
       <c r="M36">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -8047,7 +8047,7 @@
         <v>3968</v>
       </c>
       <c r="M41">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8085,7 +8085,7 @@
         <v>3968</v>
       </c>
       <c r="M42">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -8123,7 +8123,7 @@
         <v>3968</v>
       </c>
       <c r="M43">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -8161,7 +8161,7 @@
         <v>3968</v>
       </c>
       <c r="M44">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -8199,7 +8199,7 @@
         <v>3968</v>
       </c>
       <c r="M45">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -8237,7 +8237,7 @@
         <v>3968</v>
       </c>
       <c r="M46">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -8275,7 +8275,7 @@
         <v>3968</v>
       </c>
       <c r="M47">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -8313,7 +8313,7 @@
         <v>3968</v>
       </c>
       <c r="M48">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -8351,7 +8351,7 @@
         <v>3968</v>
       </c>
       <c r="M49">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8389,7 +8389,7 @@
         <v>3968</v>
       </c>
       <c r="M50">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8427,7 +8427,7 @@
         <v>3968</v>
       </c>
       <c r="M51">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8465,7 +8465,7 @@
         <v>3968</v>
       </c>
       <c r="M52">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8503,7 +8503,7 @@
         <v>3968</v>
       </c>
       <c r="M53">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8541,7 +8541,7 @@
         <v>3968</v>
       </c>
       <c r="M54">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8579,7 +8579,7 @@
         <v>3968</v>
       </c>
       <c r="M55">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8617,7 +8617,7 @@
         <v>3968</v>
       </c>
       <c r="M56">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8655,7 +8655,7 @@
         <v>3968</v>
       </c>
       <c r="M57">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8693,7 +8693,7 @@
         <v>3968</v>
       </c>
       <c r="M58">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8731,7 +8731,7 @@
         <v>3968</v>
       </c>
       <c r="M59">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8769,7 +8769,7 @@
         <v>3968</v>
       </c>
       <c r="M60">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -8807,7 +8807,7 @@
         <v>3968</v>
       </c>
       <c r="M61">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -8845,7 +8845,7 @@
         <v>3968</v>
       </c>
       <c r="M62">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8883,7 +8883,7 @@
         <v>3968</v>
       </c>
       <c r="M63">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -8921,7 +8921,7 @@
         <v>3968</v>
       </c>
       <c r="M64">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -8959,7 +8959,7 @@
         <v>3968</v>
       </c>
       <c r="M65">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -9415,7 +9415,7 @@
         <v>3968</v>
       </c>
       <c r="M77">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -9453,7 +9453,7 @@
         <v>3968</v>
       </c>
       <c r="M78">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -9491,7 +9491,7 @@
         <v>3968</v>
       </c>
       <c r="M79">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -9529,7 +9529,7 @@
         <v>3968</v>
       </c>
       <c r="M80">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -10213,7 +10213,7 @@
         <v>3968</v>
       </c>
       <c r="M98">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -10251,7 +10251,7 @@
         <v>3968</v>
       </c>
       <c r="M99">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -10289,7 +10289,7 @@
         <v>3968</v>
       </c>
       <c r="M100">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -10327,7 +10327,7 @@
         <v>3968</v>
       </c>
       <c r="M101">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -10365,7 +10365,7 @@
         <v>3968</v>
       </c>
       <c r="M102">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -10403,7 +10403,7 @@
         <v>3968</v>
       </c>
       <c r="M103">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -10441,7 +10441,7 @@
         <v>3968</v>
       </c>
       <c r="M104">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -10479,7 +10479,7 @@
         <v>3968</v>
       </c>
       <c r="M105">
-        <v>2835</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -10745,7 +10745,7 @@
         <v>3968</v>
       </c>
       <c r="M112">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -10783,7 +10783,7 @@
         <v>3968</v>
       </c>
       <c r="M113">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -10821,7 +10821,7 @@
         <v>3968</v>
       </c>
       <c r="M114">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -10859,7 +10859,7 @@
         <v>3968</v>
       </c>
       <c r="M115">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -10897,7 +10897,7 @@
         <v>3968</v>
       </c>
       <c r="M116">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -10935,7 +10935,7 @@
         <v>3968</v>
       </c>
       <c r="M117">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -10973,7 +10973,7 @@
         <v>3968</v>
       </c>
       <c r="M118">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -11011,7 +11011,7 @@
         <v>3968</v>
       </c>
       <c r="M119">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -11049,7 +11049,7 @@
         <v>3968</v>
       </c>
       <c r="M120">
-        <v>1440</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -11087,7 +11087,7 @@
         <v>3968</v>
       </c>
       <c r="M121">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -11125,7 +11125,7 @@
         <v>3968</v>
       </c>
       <c r="M122">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -11163,7 +11163,7 @@
         <v>3968</v>
       </c>
       <c r="M123">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -13722,7 +13722,7 @@
         <v>3968</v>
       </c>
       <c r="M2">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -13855,7 +13855,7 @@
         <v>3968</v>
       </c>
       <c r="M3">
-        <v>900</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13893,7 +13893,7 @@
         <v>3968</v>
       </c>
       <c r="M4">
-        <v>1935</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:15">
